--- a/inst/extdata/structure_tests/invalid_structure_09.xlsx
+++ b/inst/extdata/structure_tests/invalid_structure_09.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rverity/Dropbox/Bob/Work/My Programs/Mapping/STAVE/inst/extdata/structure_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62504DE4-44DF-FC49-8829-349757B16ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DEE07C-D887-7F40-96F6-FF8A627299D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1080" windowWidth="31520" windowHeight="18700" activeTab="3" xr2:uid="{A4E9C168-401F-F34B-85A4-C504E7A73195}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>This is an example of input data that should fail tests</t>
   </si>
   <si>
-    <t>study_ID</t>
-  </si>
-  <si>
     <t>study_name</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
     <t>Blaggs_etal</t>
   </si>
   <si>
-    <t>survey_ID</t>
-  </si>
-  <si>
     <t>study_key</t>
   </si>
   <si>
@@ -86,12 +80,6 @@
     <t>site_name</t>
   </si>
   <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>lon</t>
-  </si>
-  <si>
     <t>spatial_notes</t>
   </si>
   <si>
@@ -140,20 +128,32 @@
     <t>example name</t>
   </si>
   <si>
-    <t>crt:1_2_3:AAA;mdr1:1_2_3:AAA</t>
-  </si>
-  <si>
-    <t>Specific issue: counts table contains variant counts that sum to more than the total_num</t>
-  </si>
-  <si>
-    <t>crt:1_2_3:AAA;mdr1:1_2_3:AAC</t>
+    <t>survey_id</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>study_id</t>
+  </si>
+  <si>
+    <t>Specific issue: total_num is not identical after grouping by survey-gene-locus</t>
+  </si>
+  <si>
+    <t>crt:1:A</t>
+  </si>
+  <si>
+    <t>crt:1:C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -165,6 +165,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -191,10 +198,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -550,7 +559,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -563,7 +572,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -573,42 +582,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>2024</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -624,7 +633,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -633,52 +642,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -687,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -712,7 +721,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -722,27 +731,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -750,16 +759,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>35</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/structure_tests/invalid_structure_09.xlsx
+++ b/inst/extdata/structure_tests/invalid_structure_09.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rverity/Dropbox/Bob/Work/My Programs/Mapping/STAVE/inst/extdata/structure_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DEE07C-D887-7F40-96F6-FF8A627299D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9944CCF-0874-DD4D-8C3B-FCF492AE4C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1080" windowWidth="31520" windowHeight="18700" activeTab="3" xr2:uid="{A4E9C168-401F-F34B-85A4-C504E7A73195}"/>
+    <workbookView xWindow="680" yWindow="5040" windowWidth="31520" windowHeight="18700" xr2:uid="{A4E9C168-401F-F34B-85A4-C504E7A73195}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>Notes</t>
   </si>
@@ -68,9 +68,6 @@
     <t>https://doi.org/10.1093%2Fgenetics%2F16.2.97</t>
   </si>
   <si>
-    <t>Blaggs_etal</t>
-  </si>
-  <si>
     <t>study_key</t>
   </si>
   <si>
@@ -113,21 +110,12 @@
     <t>total_num</t>
   </si>
   <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>example site</t>
-  </si>
-  <si>
     <t>2020-01-01</t>
   </si>
   <si>
     <t>study01</t>
   </si>
   <si>
-    <t>example name</t>
-  </si>
-  <si>
     <t>survey_id</t>
   </si>
   <si>
@@ -140,13 +128,13 @@
     <t>study_id</t>
   </si>
   <si>
-    <t>Specific issue: total_num is not identical after grouping by survey-gene-locus</t>
-  </si>
-  <si>
     <t>crt:1:A</t>
   </si>
   <si>
     <t>crt:1:C</t>
+  </si>
+  <si>
+    <t>Specific issue: total_num is not identical after grouping by study_id, survey_id, and gene-locus combination</t>
   </si>
 </sst>
 </file>
@@ -541,7 +529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F458F03-62A4-D443-9D68-A11CADF671CD}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -559,7 +547,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -572,7 +560,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -582,7 +570,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -602,19 +590,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>2024</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -633,7 +612,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,51 +622,45 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -696,19 +669,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -718,56 +685,65 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E51D5F-A46A-0B42-A5D0-47D275C37629}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>11</v>
       </c>
     </row>

--- a/inst/extdata/structure_tests/invalid_structure_09.xlsx
+++ b/inst/extdata/structure_tests/invalid_structure_09.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rverity/Dropbox/Bob/Work/My Programs/Mapping/STAVE/inst/extdata/structure_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9944CCF-0874-DD4D-8C3B-FCF492AE4C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1278F680-11CE-4F46-8B6C-1F6C00368368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="5040" windowWidth="31520" windowHeight="18700" xr2:uid="{A4E9C168-401F-F34B-85A4-C504E7A73195}"/>
+    <workbookView xWindow="680" yWindow="1940" windowWidth="31520" windowHeight="18700" activeTab="1" xr2:uid="{A4E9C168-401F-F34B-85A4-C504E7A73195}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>Notes</t>
   </si>
@@ -47,39 +47,15 @@
     <t>This is an example of input data that should fail tests</t>
   </si>
   <si>
-    <t>study_name</t>
-  </si>
-  <si>
-    <t>study_type</t>
-  </si>
-  <si>
-    <t>authors</t>
-  </si>
-  <si>
-    <t>publication_year</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1093%2Fgenetics%2F16.2.97</t>
   </si>
   <si>
-    <t>study_key</t>
-  </si>
-  <si>
     <t>country_name</t>
   </si>
   <si>
     <t>site_name</t>
   </si>
   <si>
-    <t>spatial_notes</t>
-  </si>
-  <si>
     <t>collection_start</t>
   </si>
   <si>
@@ -98,9 +74,6 @@
     <t>example data</t>
   </si>
   <si>
-    <t>survey_key</t>
-  </si>
-  <si>
     <t>variant_string</t>
   </si>
   <si>
@@ -113,9 +86,6 @@
     <t>2020-01-01</t>
   </si>
   <si>
-    <t>study01</t>
-  </si>
-  <si>
     <t>survey_id</t>
   </si>
   <si>
@@ -135,6 +105,39 @@
   </si>
   <si>
     <t>Specific issue: total_num is not identical after grouping by study_id, survey_id, and gene-locus combination</t>
+  </si>
+  <si>
+    <t>study_label</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>access_level</t>
+  </si>
+  <si>
+    <t>contributors</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>reference_year</t>
+  </si>
+  <si>
+    <t>foo</t>
+  </si>
+  <si>
+    <t>location_method</t>
+  </si>
+  <si>
+    <t>location_notes</t>
+  </si>
+  <si>
+    <t>time_method</t>
+  </si>
+  <si>
+    <t>public</t>
   </si>
 </sst>
 </file>
@@ -186,12 +189,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -529,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F458F03-62A4-D443-9D68-A11CADF671CD}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -547,7 +549,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -557,10 +559,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913D86B1-4503-0D4D-8A9D-3BCCCF42F647}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -568,40 +570,43 @@
     <col min="5" max="5" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{856CC462-229B-9F4E-BE25-A59E98D21CE1}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{FAC749C5-2687-DC41-BF20-BC610FF1FF23}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -609,10 +614,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF84CB1-9532-2C43-A7F8-683871878F9F}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection sqref="A1:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -620,47 +625,53 @@
     <col min="8" max="10" width="14.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -668,14 +679,15 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -688,7 +700,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -698,30 +710,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -732,13 +744,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>2</v>

--- a/inst/extdata/structure_tests/invalid_structure_09.xlsx
+++ b/inst/extdata/structure_tests/invalid_structure_09.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rverity/Dropbox/Bob/Work/My Programs/Mapping/STAVE/inst/extdata/structure_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1278F680-11CE-4F46-8B6C-1F6C00368368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3C0769-A0B4-1B4D-9A71-D490ECC71605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="1940" windowWidth="31520" windowHeight="18700" activeTab="1" xr2:uid="{A4E9C168-401F-F34B-85A4-C504E7A73195}"/>
+    <workbookView xWindow="680" yWindow="1840" windowWidth="31520" windowHeight="18700" activeTab="3" xr2:uid="{A4E9C168-401F-F34B-85A4-C504E7A73195}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>Notes</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>public</t>
+  </si>
+  <si>
+    <t>PMID</t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
 </sst>
 </file>
@@ -559,10 +565,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913D86B1-4503-0D4D-8A9D-3BCCCF42F647}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -570,7 +576,7 @@
     <col min="5" max="5" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -592,8 +598,11 @@
       <c r="G1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -697,10 +706,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E51D5F-A46A-0B42-A5D0-47D275C37629}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -708,7 +717,7 @@
     <col min="3" max="3" width="33.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -724,8 +733,11 @@
       <c r="E1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -742,7 +754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
